--- a/data/trans_dic/P22$concerIndv-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P22$concerIndv-Estudios-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.008816253714278683</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.01755909396017602</v>
+        <v>0.01755909396017601</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.003940903948944007</v>
+        <v>0.003525817879239598</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.003901762283161883</v>
+        <v>0.003965833150365692</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.002598699665868415</v>
+        <v>0.002623174440426553</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.009726603583897455</v>
+        <v>0.009732948667780269</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01135303403898547</v>
+        <v>0.01061774370986891</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.007472044769483363</v>
+        <v>0.007489988593457209</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.004084948152965797</v>
+        <v>0.004678750041388968</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01126832005751826</v>
+        <v>0.01119074629896172</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.009152382437554632</v>
+        <v>0.008645509248309894</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.006733755490786112</v>
+        <v>0.007065036085658855</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.00467878598913883</v>
+        <v>0.004780216424397712</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01211061709541002</v>
+        <v>0.01209612369050219</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01697823797554909</v>
+        <v>0.01633480577468295</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01537892736819477</v>
+        <v>0.01488502075286475</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01463413054036394</v>
+        <v>0.01505138618263036</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03115433872071618</v>
+        <v>0.03188992852617685</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02666718887931732</v>
+        <v>0.02611206657539695</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.02107017662245423</v>
+        <v>0.02157005889389641</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.0201851567453774</v>
+        <v>0.02160244833435294</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.02589047037585171</v>
+        <v>0.02577727733209618</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01909508022309979</v>
+        <v>0.01769882538338374</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.01571008206179277</v>
+        <v>0.01628539849873136</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.0150367417225985</v>
+        <v>0.01554319240626297</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.02425498420564955</v>
+        <v>0.02451348316236635</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.02876142708367358</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.05891659531338666</v>
+        <v>0.05891659531338665</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01199430831431154</v>
+        <v>0.01138580038839366</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02179283183027839</v>
+        <v>0.02168749991179633</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0180564717324953</v>
+        <v>0.01737563837831926</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03886701477258034</v>
+        <v>0.0390855086267142</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02953466179376998</v>
+        <v>0.02979213546597763</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02901481763817624</v>
+        <v>0.02884605036561773</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02648739964028729</v>
+        <v>0.0266530095184337</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.06063454251955912</v>
+        <v>0.06183041965461006</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0222784685454813</v>
+        <v>0.02235567840893086</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.0271238899377815</v>
+        <v>0.0271521654991669</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02334077330971461</v>
+        <v>0.02307198800776504</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05249166511201849</v>
+        <v>0.0520848346757207</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02484919396975832</v>
+        <v>0.02470012378718371</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03822288411616314</v>
+        <v>0.03859996165208924</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03121901081308253</v>
+        <v>0.03176122782475128</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05929173425036542</v>
+        <v>0.05869922487817401</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05018714776960004</v>
+        <v>0.05014010701989407</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.04840001326675728</v>
+        <v>0.04878468785874454</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.04246661921261339</v>
+        <v>0.04402280016276482</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.08066150501816888</v>
+        <v>0.08283165856050519</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03379190017667495</v>
+        <v>0.03434369723444769</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03996785056973661</v>
+        <v>0.04002126802069101</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.03452759729946779</v>
+        <v>0.03407059188708265</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.06745253593029416</v>
+        <v>0.06683803391087621</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.1069043068677198</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.1625661781813262</v>
+        <v>0.1625661781813261</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.1020261566457158</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.07506745395836152</v>
+        <v>0.07514121799106206</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07207627428205796</v>
+        <v>0.07248159486152385</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.08092402131161801</v>
+        <v>0.08244119503825446</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1361947975860956</v>
+        <v>0.1331825480359769</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.07567079335429759</v>
+        <v>0.07644007845790089</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05353809728178651</v>
+        <v>0.05574111065897382</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.115378401612357</v>
+        <v>0.1167817618682099</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1748570776558531</v>
+        <v>0.1750401879425799</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.08336258977745449</v>
+        <v>0.08279439659382273</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.07085603959012507</v>
+        <v>0.0690870456513786</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1062496637208632</v>
+        <v>0.1050134159234972</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1629191612950255</v>
+        <v>0.1615475663113026</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1260088750783116</v>
+        <v>0.1265421590882341</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1328628050135963</v>
+        <v>0.1342563975126289</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1341836146611252</v>
+        <v>0.1387991041269037</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1962424299388995</v>
+        <v>0.1902943489811553</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1325778918760112</v>
+        <v>0.13454306453617</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1070167456055119</v>
+        <v>0.1066023624355145</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1766608158250084</v>
+        <v>0.1772317847566227</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2263999494696498</v>
+        <v>0.2255554524888086</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1204508561994045</v>
+        <v>0.1190814555568393</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1116137045866319</v>
+        <v>0.1093327298529471</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1487286387237621</v>
+        <v>0.146620369284924</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2021299560271411</v>
+        <v>0.2008961273858588</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.03350650800266602</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.06593773106359836</v>
+        <v>0.06593773106359838</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.03931639297741841</v>
@@ -1093,7 +1093,7 @@
         <v>0.04433222587925115</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.08409984493210342</v>
+        <v>0.08409984493210343</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.03382731984564231</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02252599278577135</v>
+        <v>0.02255433086277019</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02681376772306426</v>
+        <v>0.02657270097284883</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02740905070376188</v>
+        <v>0.02735591959113997</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05752438666219262</v>
+        <v>0.05751284544165242</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03277391552490743</v>
+        <v>0.0326707690948568</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02765315262812514</v>
+        <v>0.02792629709265541</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03821724201717196</v>
+        <v>0.03740834521034292</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.07645740070632859</v>
+        <v>0.07608299152366389</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02958888213217725</v>
+        <v>0.02964086655360973</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02855196929069019</v>
+        <v>0.0287098033465141</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03427976463224711</v>
+        <v>0.03421146627183632</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.06935045985522084</v>
+        <v>0.0694178984313701</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03389527467715938</v>
+        <v>0.03367560297865173</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04011646172050316</v>
+        <v>0.04030927029198291</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04051066061933171</v>
+        <v>0.03964839827423392</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.07524116920686309</v>
+        <v>0.07605558334145864</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04716834964403122</v>
+        <v>0.04647818735689761</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03998644432731435</v>
+        <v>0.04058621167312559</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.05105594935419131</v>
+        <v>0.05191074533236698</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.09217944409364158</v>
+        <v>0.09265501663787849</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.0383096186993904</v>
+        <v>0.03859628363265374</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.0380563915882321</v>
+        <v>0.03790880892091589</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.0442243316535005</v>
+        <v>0.04424510343668977</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.08163123980278535</v>
+        <v>0.08156889889437154</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>4055</v>
+        <v>3628</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3803</v>
+        <v>3865</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1957</v>
+        <v>1976</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>5627</v>
+        <v>5631</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>14921</v>
+        <v>13955</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>9996</v>
+        <v>10020</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>4047</v>
+        <v>4635</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>9255</v>
+        <v>9191</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>21445</v>
+        <v>20258</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>15571</v>
+        <v>16337</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>8159</v>
+        <v>8336</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>16953</v>
+        <v>16933</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>17469</v>
+        <v>16807</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>14989</v>
+        <v>14508</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>11022</v>
+        <v>11336</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>18024</v>
+        <v>18449</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>35048</v>
+        <v>34318</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>28188</v>
+        <v>28856</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>19998</v>
+        <v>21402</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>21264</v>
+        <v>21171</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>44743</v>
+        <v>41471</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>36329</v>
+        <v>37659</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>26222</v>
+        <v>27106</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>33953</v>
+        <v>34315</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>20269</v>
+        <v>19240</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>42779</v>
+        <v>42572</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>37442</v>
+        <v>36030</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>86695</v>
+        <v>87183</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>46857</v>
+        <v>47265</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>51002</v>
+        <v>50706</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>52616</v>
+        <v>52945</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>131597</v>
+        <v>134192</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>72992</v>
+        <v>73245</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>100922</v>
+        <v>101027</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>94765</v>
+        <v>93673</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>231010</v>
+        <v>229220</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>41991</v>
+        <v>41739</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>75031</v>
+        <v>75771</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>64736</v>
+        <v>65860</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>132254</v>
+        <v>130932</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>79622</v>
+        <v>79547</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>85078</v>
+        <v>85754</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>84358</v>
+        <v>87449</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>175062</v>
+        <v>179772</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>110714</v>
+        <v>112522</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>148712</v>
+        <v>148910</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>140184</v>
+        <v>138328</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>296851</v>
+        <v>294147</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>41393</v>
+        <v>41433</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>34682</v>
+        <v>34877</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>44178</v>
+        <v>45007</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>96914</v>
+        <v>94771</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>36050</v>
+        <v>36417</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>24554</v>
+        <v>25565</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>63359</v>
+        <v>64130</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>128498</v>
+        <v>128633</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>85682</v>
+        <v>85098</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>66591</v>
+        <v>64929</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>116350</v>
+        <v>114996</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>235657</v>
+        <v>233673</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>69482</v>
+        <v>69776</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>63931</v>
+        <v>64602</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>73254</v>
+        <v>75774</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>139644</v>
+        <v>135411</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>63162</v>
+        <v>64098</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>49081</v>
+        <v>48891</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>97012</v>
+        <v>97325</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>166376</v>
+        <v>165756</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>123802</v>
+        <v>122394</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>104896</v>
+        <v>102752</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>162867</v>
+        <v>160559</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>292374</v>
+        <v>290589</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>73663</v>
+        <v>73756</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>91671</v>
+        <v>90847</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>92443</v>
+        <v>92263</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>202525</v>
+        <v>202484</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>110683</v>
+        <v>110335</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>98286</v>
+        <v>99256</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>134765</v>
+        <v>131913</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>284920</v>
+        <v>283525</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>196686</v>
+        <v>197032</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>199094</v>
+        <v>200194</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>236496</v>
+        <v>236025</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>502597</v>
+        <v>503085</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>110842</v>
+        <v>110124</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>137150</v>
+        <v>137809</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>136631</v>
+        <v>133722</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>264900</v>
+        <v>267768</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>159296</v>
+        <v>156965</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>142121</v>
+        <v>144253</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>180038</v>
+        <v>183053</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>343508</v>
+        <v>345281</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>254656</v>
+        <v>256561</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>265368</v>
+        <v>264339</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>305104</v>
+        <v>305247</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>591598</v>
+        <v>591146</v>
       </c>
     </row>
     <row r="20">
